--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.7891256872904604</v>
+        <v>0.7454588356058228</v>
       </c>
       <c r="D2">
-        <v>0.4301499647909786</v>
+        <v>0.4638850819412634</v>
       </c>
       <c r="E2">
         <v>0.7429721409093052</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1393999314646709</v>
+        <v>0.1379965594943917</v>
       </c>
       <c r="D3">
-        <v>0.8891508450358681</v>
+        <v>0.8914984107874462</v>
       </c>
       <c r="E3">
         <v>0.7429721409093052</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6158382731160149</v>
+        <v>-0.6654012230363781</v>
       </c>
       <c r="D4">
-        <v>0.5380847366154025</v>
+        <v>0.5127102621285324</v>
       </c>
       <c r="E4">
         <v>0.7429721409093052</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.94075143587914</v>
+        <v>2.154753016767805</v>
       </c>
       <c r="D5">
-        <v>0.05245562023793049</v>
+        <v>0.0423913271552272</v>
       </c>
       <c r="E5">
         <v>0.7429721409093052</v>
@@ -531,7 +531,7 @@
         <v>0.6686993390715781</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4967052984282058</v>
+        <v>-0.4910659922433831</v>
       </c>
       <c r="D6">
-        <v>0.619461910776689</v>
+        <v>0.6282427563702213</v>
       </c>
       <c r="E6">
         <v>0.7209031286576901</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.207161842997493</v>
+        <v>-1.521839663027371</v>
       </c>
       <c r="D7">
-        <v>0.2275398566170828</v>
+        <v>0.1422939299156285</v>
       </c>
       <c r="E7">
         <v>0.7209031286576901</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.602229414056154</v>
+        <v>1.397987542814258</v>
       </c>
       <c r="D8">
-        <v>0.1092929897452741</v>
+        <v>0.1760538912425491</v>
       </c>
       <c r="E8">
         <v>0.7209031286576901</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.9996226581653702</v>
+        <v>-0.9248376023725877</v>
       </c>
       <c r="D9">
-        <v>0.3176371938086051</v>
+        <v>0.3650843603587832</v>
       </c>
       <c r="E9">
         <v>0.7378620561959296</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.074759536467666</v>
+        <v>1.562534621962491</v>
       </c>
       <c r="D10">
-        <v>0.03816084150239241</v>
+        <v>0.1324333835041722</v>
       </c>
       <c r="E10">
         <v>0.7378620561959296</v>
@@ -661,7 +661,7 @@
         <v>0.6686993390715781</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.210738808315263</v>
+        <v>2.02313517055498</v>
       </c>
       <c r="D11">
-        <v>0.02718829688881574</v>
+        <v>0.05537712452840715</v>
       </c>
       <c r="E11">
         <v>0.771130604941788</v>
@@ -687,7 +687,7 @@
         <v>0.6686993390715781</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
